--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl922f\Coding_projects\Python\Trans_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B4B37-F02F-4FBA-A26A-0E4EC52A1791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ADB035-BCA4-4C56-AA10-E64CE32A154F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{73F1E811-81C9-4472-8C5D-001FB73E6C3E}"/>
   </bookViews>
@@ -2964,11 +2964,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC54D92F-C4F5-47BF-AABB-F2DF6728B4C5}">
-  <dimension ref="A1:N501"/>
+  <dimension ref="A1:O501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2984,7 +2984,7 @@
     <col min="10" max="11" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3164,8 +3164,12 @@
       <c r="K5" s="1">
         <v>1400</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="O5">
+        <f>1810+511+200+400+190+50+45+5+20+18+17+100+100+45+45+50+45</f>
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3200,7 +3204,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3235,7 +3239,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3270,7 +3274,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3305,7 +3309,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3340,7 +3344,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3375,7 +3379,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3445,7 +3449,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3480,7 +3484,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3515,7 +3519,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
